--- a/datasets/work_orders.xlsx
+++ b/datasets/work_orders.xlsx
@@ -1,1224 +1,637 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C922F-DBBC-4501-AA22-50525CDECF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1FB7EB-D597-4119-9C29-CF72DCE09C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
   <si>
-    <t>Misty Rollins</t>
-  </si>
-  <si>
     <t>Foster-Fernandez</t>
   </si>
   <si>
-    <t>Daniel Clay</t>
-  </si>
-  <si>
     <t>Hendricks, Frazier and Dixon</t>
   </si>
   <si>
-    <t>Carolyn Hanson</t>
-  </si>
-  <si>
     <t>Ingram-Martin</t>
   </si>
   <si>
-    <t>Alexander Waters</t>
-  </si>
-  <si>
     <t>Gaines-Lang</t>
   </si>
   <si>
-    <t>Pamela Smith</t>
-  </si>
-  <si>
     <t>Conner Group</t>
   </si>
   <si>
-    <t>David Stone</t>
-  </si>
-  <si>
     <t>Moore, Brown and Duffy</t>
   </si>
   <si>
-    <t>Dalton Hill</t>
-  </si>
-  <si>
     <t>Ford-Stuart</t>
   </si>
   <si>
-    <t>Jeffrey Johnson</t>
-  </si>
-  <si>
     <t>Walsh LLC</t>
   </si>
   <si>
-    <t>Blake Ortega</t>
-  </si>
-  <si>
     <t>Merritt Inc</t>
   </si>
   <si>
-    <t>Ruben Orr</t>
-  </si>
-  <si>
     <t>Jones and Sons</t>
   </si>
   <si>
-    <t>Connie Bryant</t>
-  </si>
-  <si>
     <t>Anderson-Gonzales</t>
   </si>
   <si>
-    <t>Joyce Rose</t>
-  </si>
-  <si>
     <t>Bridges-Jackson</t>
   </si>
   <si>
-    <t>Marie Brown</t>
-  </si>
-  <si>
     <t>Hogan-French</t>
   </si>
   <si>
-    <t>Mary Mcbride</t>
-  </si>
-  <si>
     <t>Jacobs, Ortiz and Payne</t>
   </si>
   <si>
-    <t>Patricia Moreno</t>
-  </si>
-  <si>
     <t>Edwards-Smith</t>
   </si>
   <si>
-    <t>Jessica Jones</t>
-  </si>
-  <si>
     <t>Bray, Oliver and Cole</t>
   </si>
   <si>
-    <t>Michael Burke</t>
-  </si>
-  <si>
     <t>Barrett Group</t>
   </si>
   <si>
-    <t>Timothy Weiss</t>
-  </si>
-  <si>
     <t>Cohen PLC</t>
   </si>
   <si>
-    <t>Jasmine Diaz</t>
-  </si>
-  <si>
     <t>Warren, Burton and Grimes</t>
   </si>
   <si>
-    <t>Amy Gonzalez</t>
-  </si>
-  <si>
     <t>Jennings-Compton</t>
   </si>
   <si>
-    <t>Jordan Adams</t>
-  </si>
-  <si>
     <t>Lang, Carroll and Cooper</t>
   </si>
   <si>
-    <t>Christopher Dean</t>
-  </si>
-  <si>
     <t>Parker, Cooper and Kelley</t>
   </si>
   <si>
-    <t>Matthew Wallace</t>
-  </si>
-  <si>
     <t>Martin and Sons</t>
   </si>
   <si>
-    <t>Allen Fisher</t>
-  </si>
-  <si>
     <t>Anderson, Rubio and Garcia</t>
   </si>
   <si>
-    <t>Christopher Sanford</t>
-  </si>
-  <si>
     <t>Gonzalez LLC</t>
   </si>
   <si>
-    <t>Jason Dalton</t>
-  </si>
-  <si>
     <t>Bryan-Nolan</t>
   </si>
   <si>
-    <t>Kurt Clark</t>
-  </si>
-  <si>
     <t>Miller-Arroyo</t>
   </si>
   <si>
-    <t>Anna Ferguson</t>
-  </si>
-  <si>
     <t>Hernandez-Case</t>
   </si>
   <si>
-    <t>Juan Crawford</t>
-  </si>
-  <si>
     <t>Hayden and Sons</t>
   </si>
   <si>
-    <t>Natalie Marks</t>
-  </si>
-  <si>
     <t>Brown Group</t>
   </si>
   <si>
-    <t>Christopher Burns</t>
-  </si>
-  <si>
     <t>Graham PLC</t>
   </si>
   <si>
-    <t>Richard Norton</t>
-  </si>
-  <si>
     <t>Hunter, Brown and Scott</t>
   </si>
   <si>
-    <t>Justin Wolf</t>
-  </si>
-  <si>
     <t>Fox-Jacobs</t>
   </si>
   <si>
-    <t>Mark Garcia</t>
-  </si>
-  <si>
     <t>Douglas-Hammond</t>
   </si>
   <si>
-    <t>Pamela Hampton</t>
-  </si>
-  <si>
     <t>Cowan, Allen and Garcia</t>
   </si>
   <si>
-    <t>Catherine Baker</t>
-  </si>
-  <si>
     <t>Cook Group</t>
   </si>
   <si>
-    <t>Cynthia Ross</t>
-  </si>
-  <si>
     <t>Glover, Peterson and Rodriguez</t>
   </si>
   <si>
-    <t>Laurie White</t>
-  </si>
-  <si>
     <t>Garcia and Sons</t>
   </si>
   <si>
-    <t>Carol Cobb</t>
-  </si>
-  <si>
     <t>Bowman-Johnson</t>
   </si>
   <si>
-    <t>Paul Moore</t>
-  </si>
-  <si>
     <t>Nixon-Parrish</t>
   </si>
   <si>
-    <t>Heidi Hall</t>
-  </si>
-  <si>
     <t>Rodriguez Ltd</t>
   </si>
   <si>
-    <t>Sean Clarke</t>
-  </si>
-  <si>
     <t>Hawkins, Phillips and Douglas</t>
   </si>
   <si>
-    <t>Yolanda Burch</t>
-  </si>
-  <si>
     <t>Vazquez-Bryant</t>
   </si>
   <si>
-    <t>Jamie Ramos</t>
-  </si>
-  <si>
     <t>Richardson-Martinez</t>
   </si>
   <si>
-    <t>Jackson Reynolds</t>
-  </si>
-  <si>
     <t>Martinez-Simmons</t>
   </si>
   <si>
-    <t>Dustin Medina</t>
-  </si>
-  <si>
     <t>Lawrence, Estes and Fisher</t>
   </si>
   <si>
-    <t>Karen Adams</t>
-  </si>
-  <si>
     <t>Thompson LLC</t>
   </si>
   <si>
-    <t>Micheal Richards</t>
-  </si>
-  <si>
     <t>Hebert, Wiggins and Conley</t>
   </si>
   <si>
-    <t>Haley Larson</t>
-  </si>
-  <si>
     <t>Pollard, Lewis and Norris</t>
   </si>
   <si>
-    <t>Steven Fernandez</t>
-  </si>
-  <si>
     <t>Morris, Baker and Harper</t>
   </si>
   <si>
-    <t>Justin Bailey</t>
-  </si>
-  <si>
     <t>Matthews-Simmons</t>
   </si>
   <si>
-    <t>Anna Bradley</t>
-  </si>
-  <si>
     <t>Castro-Collins</t>
   </si>
   <si>
-    <t>Joe Vargas</t>
-  </si>
-  <si>
     <t>Walker Inc</t>
   </si>
   <si>
-    <t>Robert Hill</t>
-  </si>
-  <si>
     <t>Phillips LLC</t>
   </si>
   <si>
-    <t>Scott Weaver</t>
-  </si>
-  <si>
     <t>Arnold PLC</t>
   </si>
   <si>
-    <t>Mary Kennedy</t>
-  </si>
-  <si>
     <t>Carr Inc</t>
   </si>
   <si>
-    <t>Kristen Brown</t>
-  </si>
-  <si>
     <t>Bradley Inc</t>
   </si>
   <si>
-    <t>Charles Parks</t>
-  </si>
-  <si>
     <t>Salazar-Richardson</t>
   </si>
   <si>
-    <t>Mr. William Jones</t>
-  </si>
-  <si>
     <t>Lawrence Inc</t>
   </si>
   <si>
-    <t>Mrs. Samantha Sanchez</t>
-  </si>
-  <si>
     <t>Vaughan, Riley and Lopez</t>
   </si>
   <si>
-    <t>Dawn Martin</t>
-  </si>
-  <si>
     <t>Powell LLC</t>
   </si>
   <si>
-    <t>Jasmine Winters</t>
-  </si>
-  <si>
     <t>Meyers, Lee and Pierce</t>
   </si>
   <si>
-    <t>Laura Gomez</t>
-  </si>
-  <si>
     <t>Phillips Inc</t>
   </si>
   <si>
-    <t>Benjamin Huang</t>
-  </si>
-  <si>
     <t>Mckay, Collins and Gonzalez</t>
   </si>
   <si>
-    <t>Gregory Brown</t>
-  </si>
-  <si>
     <t>Shaffer, Ferguson and Wilson</t>
   </si>
   <si>
-    <t>Teresa Freeman</t>
-  </si>
-  <si>
     <t>Butler, Jackson and Thompson</t>
   </si>
   <si>
-    <t>David Hall</t>
-  </si>
-  <si>
     <t>Johnson, Horton and Lynn</t>
   </si>
   <si>
-    <t>Joseph Sparks</t>
-  </si>
-  <si>
     <t>Schmidt, Lopez and Moore</t>
   </si>
   <si>
-    <t>Samantha Myers</t>
-  </si>
-  <si>
     <t>Hill, Yang and Davidson</t>
   </si>
   <si>
-    <t>Jessica Harris</t>
-  </si>
-  <si>
     <t>Collins-Singh</t>
   </si>
   <si>
-    <t>William Padilla</t>
-  </si>
-  <si>
     <t>Strong, Benjamin and Williams</t>
   </si>
   <si>
-    <t>Anthony Smith</t>
-  </si>
-  <si>
     <t>Cooper LLC</t>
   </si>
   <si>
-    <t>Kendra Montgomery</t>
-  </si>
-  <si>
     <t>Weaver Group</t>
   </si>
   <si>
-    <t>Brandon Edwards</t>
-  </si>
-  <si>
     <t>Coleman-Stewart</t>
   </si>
   <si>
-    <t>Taylor Davis</t>
-  </si>
-  <si>
     <t>Boyle LLC</t>
   </si>
   <si>
-    <t>Christopher Maynard</t>
-  </si>
-  <si>
     <t>Cunningham, Hill and Smith</t>
   </si>
   <si>
-    <t>Justin Kim</t>
-  </si>
-  <si>
     <t>Weber LLC</t>
   </si>
   <si>
-    <t>James Pollard</t>
-  </si>
-  <si>
     <t>Dillon-Eaton</t>
   </si>
   <si>
-    <t>Jimmy Sanchez Jr.</t>
-  </si>
-  <si>
     <t>Moreno, Fisher and Brown</t>
   </si>
   <si>
-    <t>Richard Walsh</t>
-  </si>
-  <si>
     <t>Ramos, Haley and Schwartz</t>
   </si>
   <si>
-    <t>Danielle Bradley</t>
-  </si>
-  <si>
     <t>Smith LLC</t>
   </si>
   <si>
-    <t>David Bernard</t>
-  </si>
-  <si>
     <t>Shah and Sons</t>
   </si>
   <si>
-    <t>Nicole Powell</t>
-  </si>
-  <si>
     <t>Gardner-Stevens</t>
   </si>
   <si>
-    <t>Mark Thomas</t>
-  </si>
-  <si>
     <t>Griffin LLC</t>
   </si>
   <si>
-    <t>Taylor Doyle</t>
-  </si>
-  <si>
     <t>Perry LLC</t>
   </si>
   <si>
-    <t>Emily Forbes</t>
-  </si>
-  <si>
     <t>Miller-Brown</t>
   </si>
   <si>
-    <t>Jessica Cox</t>
-  </si>
-  <si>
     <t>Fischer-Kidd</t>
   </si>
   <si>
-    <t>Erin Henderson</t>
-  </si>
-  <si>
     <t>Ewing Group</t>
   </si>
   <si>
-    <t>Alex Lopez</t>
-  </si>
-  <si>
     <t>King, Dominguez and Gomez</t>
   </si>
   <si>
-    <t>Glen Taylor</t>
-  </si>
-  <si>
     <t>Hurst, Murphy and Taylor</t>
   </si>
   <si>
-    <t>Nichole Jordan</t>
-  </si>
-  <si>
     <t>Jenkins, Patel and Rivera</t>
   </si>
   <si>
-    <t>Sandra Davis</t>
-  </si>
-  <si>
     <t>Mendoza-Sanford</t>
   </si>
   <si>
-    <t>Ricky Parrish</t>
-  </si>
-  <si>
     <t>Kennedy PLC</t>
   </si>
   <si>
-    <t>Kevin West</t>
-  </si>
-  <si>
     <t>Garcia PLC</t>
   </si>
   <si>
-    <t>Joanna Nguyen</t>
-  </si>
-  <si>
     <t>Goodman-Montgomery</t>
   </si>
   <si>
-    <t>Maureen Patton</t>
-  </si>
-  <si>
     <t>Christensen, Mcpherson and Wolfe</t>
   </si>
   <si>
-    <t>Chad Chambers</t>
-  </si>
-  <si>
     <t>Lynn-Brewer</t>
   </si>
   <si>
-    <t>Lisa Castro</t>
-  </si>
-  <si>
     <t>Davis Group</t>
   </si>
   <si>
-    <t>Jenny Jones</t>
-  </si>
-  <si>
     <t>Swanson Ltd</t>
   </si>
   <si>
-    <t>Stephanie Henry</t>
-  </si>
-  <si>
     <t>Schroeder PLC</t>
   </si>
   <si>
-    <t>Shirley Hudson</t>
-  </si>
-  <si>
     <t>Braun, Davis and Cannon</t>
   </si>
   <si>
-    <t>Michael Keller</t>
-  </si>
-  <si>
     <t>Roth Inc</t>
   </si>
   <si>
-    <t>Amy Hampton</t>
-  </si>
-  <si>
     <t>Skinner PLC</t>
   </si>
   <si>
-    <t>Julie Farley</t>
-  </si>
-  <si>
     <t>Thomas-Rasmussen</t>
   </si>
   <si>
-    <t>Samantha Williams</t>
-  </si>
-  <si>
     <t>Shaw-Russell</t>
   </si>
   <si>
-    <t>Eric Reyes</t>
-  </si>
-  <si>
     <t>Lopez Group</t>
   </si>
   <si>
-    <t>Joshua Anderson</t>
-  </si>
-  <si>
     <t>Morton, Lewis and Bradley</t>
   </si>
   <si>
-    <t>Tyler Greer</t>
-  </si>
-  <si>
     <t>Carson-Taylor</t>
   </si>
   <si>
-    <t>Oscar Chaney</t>
-  </si>
-  <si>
     <t>Alvarez and Sons</t>
   </si>
   <si>
-    <t>Matthew Stokes</t>
-  </si>
-  <si>
     <t>Reynolds Inc</t>
   </si>
   <si>
-    <t>Kayla Lutz</t>
-  </si>
-  <si>
     <t>Rios, Moore and Thompson</t>
   </si>
   <si>
-    <t>Sandra Smith</t>
-  </si>
-  <si>
     <t>Douglas-Gordon</t>
   </si>
   <si>
-    <t>David Fernandez</t>
-  </si>
-  <si>
     <t>Rosales, Collins and Henry</t>
   </si>
   <si>
-    <t>Brandon Maxwell</t>
-  </si>
-  <si>
     <t>Smith Inc</t>
   </si>
   <si>
-    <t>Christopher Allen</t>
-  </si>
-  <si>
     <t>Washington-Salazar</t>
   </si>
   <si>
-    <t>Richard Thompson</t>
-  </si>
-  <si>
     <t>Booker Group</t>
   </si>
   <si>
-    <t>Rebecca Wright</t>
-  </si>
-  <si>
     <t>Mason-Hernandez</t>
   </si>
   <si>
-    <t>Scott Gibbs</t>
-  </si>
-  <si>
     <t>Gray Ltd</t>
   </si>
   <si>
-    <t>Cynthia Watson</t>
-  </si>
-  <si>
     <t>Jones, Johnson and Frye</t>
   </si>
   <si>
-    <t>Sandra Lee</t>
-  </si>
-  <si>
     <t>Simpson, Miller and Allison</t>
   </si>
   <si>
-    <t>William King</t>
-  </si>
-  <si>
     <t>Frank Inc</t>
   </si>
   <si>
-    <t>Jared Roberts</t>
-  </si>
-  <si>
     <t>Coleman PLC</t>
   </si>
   <si>
-    <t>Susan Wolf</t>
-  </si>
-  <si>
     <t>Austin LLC</t>
   </si>
   <si>
-    <t>Tyler Parks</t>
-  </si>
-  <si>
     <t>Sparks-Nunez</t>
   </si>
   <si>
-    <t>Corey Campbell</t>
-  </si>
-  <si>
     <t>Andrews, Harmon and Davis</t>
   </si>
   <si>
-    <t>Andrew Beck</t>
-  </si>
-  <si>
     <t>Salazar, Schultz and Hopkins</t>
   </si>
   <si>
-    <t>Jeremy Cardenas</t>
-  </si>
-  <si>
     <t>Dodson, Thompson and Jackson</t>
   </si>
   <si>
-    <t>Rachel Flowers</t>
-  </si>
-  <si>
     <t>Graham-Schneider</t>
   </si>
   <si>
-    <t>James Wilson</t>
-  </si>
-  <si>
     <t>Riggs Ltd</t>
   </si>
   <si>
-    <t>Amy Castillo</t>
-  </si>
-  <si>
     <t>Trevino-Harrison</t>
   </si>
   <si>
-    <t>Kaitlyn Chavez</t>
-  </si>
-  <si>
     <t>Hoffman, Watson and Parsons</t>
   </si>
   <si>
-    <t>Kendra Perry</t>
-  </si>
-  <si>
     <t>Christian-Henry</t>
   </si>
   <si>
-    <t>Kelly Rush</t>
-  </si>
-  <si>
     <t>Griffin Ltd</t>
   </si>
   <si>
-    <t>Alexandra Richards</t>
-  </si>
-  <si>
     <t>Brown-Murray</t>
   </si>
   <si>
-    <t>Dr. James Kennedy DVM</t>
-  </si>
-  <si>
     <t>Flynn Ltd</t>
   </si>
   <si>
-    <t>Brooke Walker</t>
-  </si>
-  <si>
     <t>Lopez LLC</t>
   </si>
   <si>
-    <t>Justin Burke</t>
-  </si>
-  <si>
     <t>Peterson-Thompson</t>
   </si>
   <si>
-    <t>Preston West</t>
-  </si>
-  <si>
     <t>Morris, Williams and Donaldson</t>
   </si>
   <si>
-    <t>Tyler Bishop</t>
-  </si>
-  <si>
     <t>Bennett, Williams and Mitchell</t>
   </si>
   <si>
-    <t>Connie Gordon</t>
-  </si>
-  <si>
     <t>Baldwin-Martin</t>
   </si>
   <si>
-    <t>Joel Thompson</t>
-  </si>
-  <si>
     <t>Phillips, Woods and Robinson</t>
   </si>
   <si>
-    <t>Mrs. Jennifer Martin</t>
-  </si>
-  <si>
     <t>Woodward LLC</t>
   </si>
   <si>
-    <t>Lindsey Garcia</t>
-  </si>
-  <si>
     <t>Wilson, Padilla and Smith</t>
   </si>
   <si>
-    <t>Courtney Miller</t>
-  </si>
-  <si>
     <t>Taylor and Sons</t>
   </si>
   <si>
-    <t>Brianna Rodriguez</t>
-  </si>
-  <si>
     <t>Green, Williamson and Johnson</t>
   </si>
   <si>
-    <t>Sandra Lee PhD</t>
-  </si>
-  <si>
     <t>Hunt-Cooper</t>
   </si>
   <si>
-    <t>Kimberly Mcdonald</t>
-  </si>
-  <si>
     <t>Williams-Miles</t>
   </si>
   <si>
-    <t>Ashley Williams</t>
-  </si>
-  <si>
     <t>Sanders, Stevens and Jackson</t>
   </si>
   <si>
-    <t>Anthony Glass</t>
-  </si>
-  <si>
     <t>Moore-White</t>
   </si>
   <si>
-    <t>David Collins</t>
-  </si>
-  <si>
     <t>Parker-Kane</t>
   </si>
   <si>
-    <t>Olivia Reid</t>
-  </si>
-  <si>
     <t>Smith, Espinoza and Peck</t>
   </si>
   <si>
-    <t>Desiree Elliott</t>
-  </si>
-  <si>
     <t>Riley-Hammond</t>
   </si>
   <si>
-    <t>Robert Fernandez</t>
-  </si>
-  <si>
     <t>Gross Ltd</t>
   </si>
   <si>
-    <t>Karen Garcia</t>
-  </si>
-  <si>
     <t>Jacobs-Rice</t>
   </si>
   <si>
-    <t>Christopher Luna</t>
-  </si>
-  <si>
     <t>Richardson Group</t>
   </si>
   <si>
-    <t>Jeremy Scott</t>
-  </si>
-  <si>
     <t>Miller, Soto and Porter</t>
   </si>
   <si>
-    <t>Amber Wright</t>
-  </si>
-  <si>
     <t>Cruz-Lowe</t>
   </si>
   <si>
-    <t>Jessica Murray</t>
-  </si>
-  <si>
     <t>Bishop-Goodwin</t>
   </si>
   <si>
-    <t>Natalie Smith</t>
-  </si>
-  <si>
     <t>Anderson, Carrillo and Holmes</t>
   </si>
   <si>
-    <t>Linda Padilla</t>
-  </si>
-  <si>
     <t>Smith, Thompson and Banks</t>
   </si>
   <si>
-    <t>Megan Hall</t>
-  </si>
-  <si>
     <t>Mcintosh Ltd</t>
   </si>
   <si>
-    <t>Shane Lopez</t>
-  </si>
-  <si>
     <t>Williams-Peterson</t>
   </si>
   <si>
-    <t>Alexis Perry</t>
-  </si>
-  <si>
     <t>Robinson LLC</t>
   </si>
   <si>
-    <t>Andrea Brown</t>
-  </si>
-  <si>
     <t>Manning, Simpson and Grimes</t>
   </si>
   <si>
-    <t>James Baker</t>
-  </si>
-  <si>
     <t>Young, Castillo and Nelson</t>
   </si>
   <si>
-    <t>Bryan Day</t>
-  </si>
-  <si>
     <t>Owens, Hayes and Ruiz</t>
   </si>
   <si>
-    <t>Sarah Rodriguez</t>
-  </si>
-  <si>
     <t>Lewis, Franklin and Goodman</t>
   </si>
   <si>
-    <t>Ryan Grant</t>
-  </si>
-  <si>
     <t>Hodges-Montgomery</t>
   </si>
   <si>
-    <t>Stacy Wilkins</t>
-  </si>
-  <si>
     <t>Thomas, Lopez and Maxwell</t>
   </si>
   <si>
-    <t>Mitchell Vega</t>
-  </si>
-  <si>
     <t>Stone-Klein</t>
   </si>
   <si>
-    <t>Cassandra Reese</t>
-  </si>
-  <si>
     <t>Boyd, Kelley and Ponce</t>
   </si>
   <si>
-    <t>Timothy Pena</t>
-  </si>
-  <si>
     <t>Proctor-Daniel</t>
   </si>
   <si>
-    <t>Robert Pruitt</t>
-  </si>
-  <si>
     <t>Williams-Porter</t>
   </si>
   <si>
-    <t>Janice Martinez</t>
-  </si>
-  <si>
     <t>Mcgee Group</t>
   </si>
   <si>
-    <t>Edward Shea</t>
-  </si>
-  <si>
     <t>Guzman, Perez and West</t>
   </si>
   <si>
-    <t>Jeremy Camacho</t>
-  </si>
-  <si>
     <t>Campos-Vaughan</t>
   </si>
   <si>
-    <t>Patrick Moreno</t>
-  </si>
-  <si>
     <t>Moore-Scott</t>
   </si>
   <si>
-    <t>Jay Williams</t>
-  </si>
-  <si>
     <t>Hunter PLC</t>
   </si>
   <si>
-    <t>Steven Wilson</t>
-  </si>
-  <si>
     <t>Wolfe Inc</t>
   </si>
   <si>
-    <t>Kristy Perkins</t>
-  </si>
-  <si>
     <t>Barrera Inc</t>
   </si>
   <si>
-    <t>Danielle Arias</t>
-  </si>
-  <si>
     <t>Taylor, Harrison and Bailey</t>
   </si>
   <si>
-    <t>Jose Diaz</t>
-  </si>
-  <si>
     <t>Johnson, May and Nunez</t>
   </si>
   <si>
-    <t>Benjamin Sanders</t>
-  </si>
-  <si>
     <t>Hall-Watson</t>
   </si>
   <si>
-    <t>Jacob Miller</t>
-  </si>
-  <si>
     <t>Boone-Flores</t>
   </si>
   <si>
-    <t>Alexandra Floyd</t>
-  </si>
-  <si>
     <t>Mcmillan, Vaughan and Jones</t>
   </si>
   <si>
-    <t>Kristen Barton</t>
-  </si>
-  <si>
     <t>Tate, Martin and Charles</t>
   </si>
   <si>
-    <t>Austin Miller</t>
-  </si>
-  <si>
     <t>Carr, Duncan and Reese</t>
   </si>
   <si>
-    <t>Katherine Krueger</t>
-  </si>
-  <si>
     <t>Crawford-Jackson</t>
   </si>
   <si>
-    <t>Maria Johnson</t>
-  </si>
-  <si>
     <t>Stewart-Solis</t>
   </si>
   <si>
-    <t>James Williams</t>
-  </si>
-  <si>
     <t>Barker-Hernandez</t>
   </si>
   <si>
-    <t>Gabrielle Mccormick</t>
-  </si>
-  <si>
     <t>Harper, Wells and Brown</t>
   </si>
   <si>
-    <t>Rachel Mcdonald</t>
-  </si>
-  <si>
     <t>Morris, Russell and Hurley</t>
   </si>
   <si>
-    <t>Mrs. Elizabeth Macdonald MD</t>
-  </si>
-  <si>
     <t>Crawford-Bauer</t>
   </si>
   <si>
-    <t>April Barrera</t>
-  </si>
-  <si>
     <t>Durham Ltd</t>
   </si>
   <si>
-    <t>Calvin Vasquez</t>
-  </si>
-  <si>
     <t>Taylor, Maldonado and Patterson</t>
   </si>
   <si>
-    <t>Whitney Hernandez</t>
-  </si>
-  <si>
     <t>Hansen-Lowe</t>
   </si>
   <si>
-    <t>Mrs. Christina Cross MD</t>
-  </si>
-  <si>
     <t>Lawson-Martin</t>
   </si>
   <si>
-    <t>Barry Thompson</t>
-  </si>
-  <si>
     <t>Baker PLC</t>
   </si>
   <si>
-    <t>Thomas Jones</t>
-  </si>
-  <si>
     <t>Lee Ltd</t>
   </si>
   <si>
-    <t>David Kelley</t>
-  </si>
-  <si>
     <t>Fernandez, Rose and Johnson</t>
   </si>
   <si>
@@ -1841,6 +1254,606 @@
   </si>
   <si>
     <t>services_cost</t>
+  </si>
+  <si>
+    <t>misty rollins</t>
+  </si>
+  <si>
+    <t>daniel clay</t>
+  </si>
+  <si>
+    <t>carolyn hanson</t>
+  </si>
+  <si>
+    <t>alexander waters</t>
+  </si>
+  <si>
+    <t>pamela smith</t>
+  </si>
+  <si>
+    <t>david stone</t>
+  </si>
+  <si>
+    <t>dalton hill</t>
+  </si>
+  <si>
+    <t>jeffrey johnson</t>
+  </si>
+  <si>
+    <t>blake ortega</t>
+  </si>
+  <si>
+    <t>ruben orr</t>
+  </si>
+  <si>
+    <t>connie bryant</t>
+  </si>
+  <si>
+    <t>joyce rose</t>
+  </si>
+  <si>
+    <t>marie brown</t>
+  </si>
+  <si>
+    <t>mary mcbride</t>
+  </si>
+  <si>
+    <t>patricia moreno</t>
+  </si>
+  <si>
+    <t>jessica jones</t>
+  </si>
+  <si>
+    <t>michael burke</t>
+  </si>
+  <si>
+    <t>timothy weiss</t>
+  </si>
+  <si>
+    <t>jasmine diaz</t>
+  </si>
+  <si>
+    <t>amy gonzalez</t>
+  </si>
+  <si>
+    <t>jordan adams</t>
+  </si>
+  <si>
+    <t>christopher dean</t>
+  </si>
+  <si>
+    <t>matthew wallace</t>
+  </si>
+  <si>
+    <t>allen fisher</t>
+  </si>
+  <si>
+    <t>christopher sanford</t>
+  </si>
+  <si>
+    <t>jason dalton</t>
+  </si>
+  <si>
+    <t>kurt clark</t>
+  </si>
+  <si>
+    <t>anna ferguson</t>
+  </si>
+  <si>
+    <t>juan crawford</t>
+  </si>
+  <si>
+    <t>natalie marks</t>
+  </si>
+  <si>
+    <t>christopher burns</t>
+  </si>
+  <si>
+    <t>richard norton</t>
+  </si>
+  <si>
+    <t>justin wolf</t>
+  </si>
+  <si>
+    <t>mark garcia</t>
+  </si>
+  <si>
+    <t>pamela hampton</t>
+  </si>
+  <si>
+    <t>catherine baker</t>
+  </si>
+  <si>
+    <t>cynthia ross</t>
+  </si>
+  <si>
+    <t>laurie white</t>
+  </si>
+  <si>
+    <t>carol cobb</t>
+  </si>
+  <si>
+    <t>paul moore</t>
+  </si>
+  <si>
+    <t>heidi hall</t>
+  </si>
+  <si>
+    <t>sean clarke</t>
+  </si>
+  <si>
+    <t>yolanda burch</t>
+  </si>
+  <si>
+    <t>jamie ramos</t>
+  </si>
+  <si>
+    <t>jackson reynolds</t>
+  </si>
+  <si>
+    <t>dustin medina</t>
+  </si>
+  <si>
+    <t>karen adams</t>
+  </si>
+  <si>
+    <t>micheal richards</t>
+  </si>
+  <si>
+    <t>haley larson</t>
+  </si>
+  <si>
+    <t>steven fernandez</t>
+  </si>
+  <si>
+    <t>justin bailey</t>
+  </si>
+  <si>
+    <t>anna bradley</t>
+  </si>
+  <si>
+    <t>joe vargas</t>
+  </si>
+  <si>
+    <t>robert hill</t>
+  </si>
+  <si>
+    <t>scott weaver</t>
+  </si>
+  <si>
+    <t>mary kennedy</t>
+  </si>
+  <si>
+    <t>kristen brown</t>
+  </si>
+  <si>
+    <t>charles parks</t>
+  </si>
+  <si>
+    <t>mr. william jones</t>
+  </si>
+  <si>
+    <t>mrs. samantha sanchez</t>
+  </si>
+  <si>
+    <t>dawn martin</t>
+  </si>
+  <si>
+    <t>jasmine winters</t>
+  </si>
+  <si>
+    <t>laura gomez</t>
+  </si>
+  <si>
+    <t>benjamin huang</t>
+  </si>
+  <si>
+    <t>gregory brown</t>
+  </si>
+  <si>
+    <t>teresa freeman</t>
+  </si>
+  <si>
+    <t>david hall</t>
+  </si>
+  <si>
+    <t>joseph sparks</t>
+  </si>
+  <si>
+    <t>samantha myers</t>
+  </si>
+  <si>
+    <t>jessica harris</t>
+  </si>
+  <si>
+    <t>william padilla</t>
+  </si>
+  <si>
+    <t>anthony smith</t>
+  </si>
+  <si>
+    <t>kendra montgomery</t>
+  </si>
+  <si>
+    <t>brandon edwards</t>
+  </si>
+  <si>
+    <t>taylor davis</t>
+  </si>
+  <si>
+    <t>christopher maynard</t>
+  </si>
+  <si>
+    <t>justin kim</t>
+  </si>
+  <si>
+    <t>james pollard</t>
+  </si>
+  <si>
+    <t>jimmy sanchez jr.</t>
+  </si>
+  <si>
+    <t>richard walsh</t>
+  </si>
+  <si>
+    <t>danielle bradley</t>
+  </si>
+  <si>
+    <t>david bernard</t>
+  </si>
+  <si>
+    <t>nicole powell</t>
+  </si>
+  <si>
+    <t>mark thomas</t>
+  </si>
+  <si>
+    <t>taylor doyle</t>
+  </si>
+  <si>
+    <t>emily forbes</t>
+  </si>
+  <si>
+    <t>jessica cox</t>
+  </si>
+  <si>
+    <t>erin henderson</t>
+  </si>
+  <si>
+    <t>alex lopez</t>
+  </si>
+  <si>
+    <t>glen taylor</t>
+  </si>
+  <si>
+    <t>nichole jordan</t>
+  </si>
+  <si>
+    <t>sandra davis</t>
+  </si>
+  <si>
+    <t>ricky parrish</t>
+  </si>
+  <si>
+    <t>kevin west</t>
+  </si>
+  <si>
+    <t>joanna nguyen</t>
+  </si>
+  <si>
+    <t>maureen patton</t>
+  </si>
+  <si>
+    <t>chad chambers</t>
+  </si>
+  <si>
+    <t>lisa castro</t>
+  </si>
+  <si>
+    <t>jenny jones</t>
+  </si>
+  <si>
+    <t>stephanie henry</t>
+  </si>
+  <si>
+    <t>shirley hudson</t>
+  </si>
+  <si>
+    <t>michael keller</t>
+  </si>
+  <si>
+    <t>amy hampton</t>
+  </si>
+  <si>
+    <t>julie farley</t>
+  </si>
+  <si>
+    <t>samantha williams</t>
+  </si>
+  <si>
+    <t>eric reyes</t>
+  </si>
+  <si>
+    <t>joshua anderson</t>
+  </si>
+  <si>
+    <t>tyler greer</t>
+  </si>
+  <si>
+    <t>oscar chaney</t>
+  </si>
+  <si>
+    <t>matthew stokes</t>
+  </si>
+  <si>
+    <t>kayla lutz</t>
+  </si>
+  <si>
+    <t>sandra smith</t>
+  </si>
+  <si>
+    <t>david fernandez</t>
+  </si>
+  <si>
+    <t>brandon maxwell</t>
+  </si>
+  <si>
+    <t>christopher allen</t>
+  </si>
+  <si>
+    <t>richard thompson</t>
+  </si>
+  <si>
+    <t>rebecca wright</t>
+  </si>
+  <si>
+    <t>scott gibbs</t>
+  </si>
+  <si>
+    <t>cynthia watson</t>
+  </si>
+  <si>
+    <t>sandra lee</t>
+  </si>
+  <si>
+    <t>william king</t>
+  </si>
+  <si>
+    <t>jared roberts</t>
+  </si>
+  <si>
+    <t>susan wolf</t>
+  </si>
+  <si>
+    <t>tyler parks</t>
+  </si>
+  <si>
+    <t>corey campbell</t>
+  </si>
+  <si>
+    <t>andrew beck</t>
+  </si>
+  <si>
+    <t>jeremy cardenas</t>
+  </si>
+  <si>
+    <t>rachel flowers</t>
+  </si>
+  <si>
+    <t>james wilson</t>
+  </si>
+  <si>
+    <t>amy castillo</t>
+  </si>
+  <si>
+    <t>kaitlyn chavez</t>
+  </si>
+  <si>
+    <t>kendra perry</t>
+  </si>
+  <si>
+    <t>kelly rush</t>
+  </si>
+  <si>
+    <t>alexandra richards</t>
+  </si>
+  <si>
+    <t>dr. james kennedy dvm</t>
+  </si>
+  <si>
+    <t>brooke walker</t>
+  </si>
+  <si>
+    <t>justin burke</t>
+  </si>
+  <si>
+    <t>preston west</t>
+  </si>
+  <si>
+    <t>tyler bishop</t>
+  </si>
+  <si>
+    <t>connie gordon</t>
+  </si>
+  <si>
+    <t>joel thompson</t>
+  </si>
+  <si>
+    <t>mrs. jennifer martin</t>
+  </si>
+  <si>
+    <t>lindsey garcia</t>
+  </si>
+  <si>
+    <t>courtney miller</t>
+  </si>
+  <si>
+    <t>brianna rodriguez</t>
+  </si>
+  <si>
+    <t>sandra lee phd</t>
+  </si>
+  <si>
+    <t>kimberly mcdonald</t>
+  </si>
+  <si>
+    <t>ashley williams</t>
+  </si>
+  <si>
+    <t>anthony glass</t>
+  </si>
+  <si>
+    <t>david collins</t>
+  </si>
+  <si>
+    <t>olivia reid</t>
+  </si>
+  <si>
+    <t>desiree elliott</t>
+  </si>
+  <si>
+    <t>robert fernandez</t>
+  </si>
+  <si>
+    <t>karen garcia</t>
+  </si>
+  <si>
+    <t>christopher luna</t>
+  </si>
+  <si>
+    <t>jeremy scott</t>
+  </si>
+  <si>
+    <t>amber wright</t>
+  </si>
+  <si>
+    <t>jessica murray</t>
+  </si>
+  <si>
+    <t>natalie smith</t>
+  </si>
+  <si>
+    <t>linda padilla</t>
+  </si>
+  <si>
+    <t>megan hall</t>
+  </si>
+  <si>
+    <t>shane lopez</t>
+  </si>
+  <si>
+    <t>alexis perry</t>
+  </si>
+  <si>
+    <t>andrea brown</t>
+  </si>
+  <si>
+    <t>james baker</t>
+  </si>
+  <si>
+    <t>bryan day</t>
+  </si>
+  <si>
+    <t>sarah rodriguez</t>
+  </si>
+  <si>
+    <t>ryan grant</t>
+  </si>
+  <si>
+    <t>stacy wilkins</t>
+  </si>
+  <si>
+    <t>mitchell vega</t>
+  </si>
+  <si>
+    <t>cassandra reese</t>
+  </si>
+  <si>
+    <t>timothy pena</t>
+  </si>
+  <si>
+    <t>robert pruitt</t>
+  </si>
+  <si>
+    <t>janice martinez</t>
+  </si>
+  <si>
+    <t>edward shea</t>
+  </si>
+  <si>
+    <t>jeremy camacho</t>
+  </si>
+  <si>
+    <t>patrick moreno</t>
+  </si>
+  <si>
+    <t>jay williams</t>
+  </si>
+  <si>
+    <t>steven wilson</t>
+  </si>
+  <si>
+    <t>kristy perkins</t>
+  </si>
+  <si>
+    <t>danielle arias</t>
+  </si>
+  <si>
+    <t>jose diaz</t>
+  </si>
+  <si>
+    <t>benjamin sanders</t>
+  </si>
+  <si>
+    <t>jacob miller</t>
+  </si>
+  <si>
+    <t>alexandra floyd</t>
+  </si>
+  <si>
+    <t>kristen barton</t>
+  </si>
+  <si>
+    <t>austin miller</t>
+  </si>
+  <si>
+    <t>katherine krueger</t>
+  </si>
+  <si>
+    <t>maria johnson</t>
+  </si>
+  <si>
+    <t>james williams</t>
+  </si>
+  <si>
+    <t>gabrielle mccormick</t>
+  </si>
+  <si>
+    <t>rachel mcdonald</t>
+  </si>
+  <si>
+    <t>mrs. elizabeth macdonald md</t>
+  </si>
+  <si>
+    <t>april barrera</t>
+  </si>
+  <si>
+    <t>calvin vasquez</t>
+  </si>
+  <si>
+    <t>whitney hernandez</t>
+  </si>
+  <si>
+    <t>mrs. christina cross md</t>
+  </si>
+  <si>
+    <t>barry thompson</t>
+  </si>
+  <si>
+    <t>thomas jones</t>
+  </si>
+  <si>
+    <t>david kelley</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1900,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1898,6 +1915,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88A07DDC-EE55-4E20-A741-72DEB7C5A794}" name="work_orders" displayName="work_orders" ref="A1:G201" totalsRowShown="0">
+  <autoFilter ref="A1:G201" xr:uid="{88A07DDC-EE55-4E20-A741-72DEB7C5A794}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{0CA9BA90-BB2E-4894-AC79-0C8E29CAB290}" name="date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3E6EC523-5715-49AD-BBD5-9B8C4E43E092}" name="owner"/>
+    <tableColumn id="3" xr3:uid="{F1A16C3B-420C-4EAD-B908-2A3D6F18EA1A}" name="account"/>
+    <tableColumn id="4" xr3:uid="{2713946A-3702-48A0-8B14-DF3B7440818A}" name="location"/>
+    <tableColumn id="5" xr3:uid="{52616646-31D8-4507-B9EF-B16DCE0CAE30}" name="subscription_cost"/>
+    <tableColumn id="6" xr3:uid="{F6EF4A49-A888-45FC-B72A-1FE2943AA363}" name="support_cost"/>
+    <tableColumn id="7" xr3:uid="{F5DDA10B-4C86-4F23-AF0C-2D6894D26E78}" name="services_cost"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2187,40 +2220,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.46484375" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s">
-        <v>602</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
-        <v>603</v>
+        <v>403</v>
       </c>
       <c r="D1" t="s">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>604</v>
+        <v>404</v>
       </c>
       <c r="F1" t="s">
-        <v>605</v>
+        <v>405</v>
       </c>
       <c r="G1" t="s">
-        <v>606</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2228,13 +2263,13 @@
         <v>44927</v>
       </c>
       <c r="B2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="E2">
         <v>306.32</v>
@@ -2251,13 +2286,13 @@
         <v>44928</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>408</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>402</v>
+        <v>202</v>
       </c>
       <c r="E3">
         <v>492.92</v>
@@ -2274,13 +2309,13 @@
         <v>44929</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>203</v>
       </c>
       <c r="E4">
         <v>220.98</v>
@@ -2297,13 +2332,13 @@
         <v>44930</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>410</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>472.38</v>
@@ -2320,13 +2355,13 @@
         <v>44931</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>411</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>467.13</v>
@@ -2343,13 +2378,13 @@
         <v>44932</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>406</v>
+        <v>206</v>
       </c>
       <c r="E7">
         <v>266.63</v>
@@ -2366,13 +2401,13 @@
         <v>44933</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>407</v>
+        <v>207</v>
       </c>
       <c r="E8">
         <v>130.44</v>
@@ -2389,13 +2424,13 @@
         <v>44934</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>414</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>408</v>
+        <v>208</v>
       </c>
       <c r="E9">
         <v>237.1</v>
@@ -2412,13 +2447,13 @@
         <v>44935</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>409</v>
+        <v>209</v>
       </c>
       <c r="E10">
         <v>372.35</v>
@@ -2435,13 +2470,13 @@
         <v>44936</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>210</v>
       </c>
       <c r="E11">
         <v>284.94</v>
@@ -2458,13 +2493,13 @@
         <v>44937</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>417</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>211</v>
       </c>
       <c r="E12">
         <v>459.15</v>
@@ -2481,13 +2516,13 @@
         <v>44938</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>418</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>212</v>
       </c>
       <c r="E13">
         <v>281.95</v>
@@ -2504,13 +2539,13 @@
         <v>44939</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>419</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>213</v>
       </c>
       <c r="E14">
         <v>183.24</v>
@@ -2527,13 +2562,13 @@
         <v>44940</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>420</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>414</v>
+        <v>214</v>
       </c>
       <c r="E15">
         <v>411.85</v>
@@ -2550,13 +2585,13 @@
         <v>44941</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="E16">
         <v>489.44</v>
@@ -2573,13 +2608,13 @@
         <v>44942</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="E17">
         <v>309.99</v>
@@ -2596,13 +2631,13 @@
         <v>44943</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>423</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="E18">
         <v>245.78</v>
@@ -2619,13 +2654,13 @@
         <v>44944</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>424</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>418</v>
+        <v>218</v>
       </c>
       <c r="E19">
         <v>216.65</v>
@@ -2642,13 +2677,13 @@
         <v>44945</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>425</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>419</v>
+        <v>219</v>
       </c>
       <c r="E20">
         <v>268.38</v>
@@ -2665,13 +2700,13 @@
         <v>44946</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>426</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="E21">
         <v>444.44</v>
@@ -2688,13 +2723,13 @@
         <v>44947</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>427</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>421</v>
+        <v>221</v>
       </c>
       <c r="E22">
         <v>255.1</v>
@@ -2711,13 +2746,13 @@
         <v>44948</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>428</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>422</v>
+        <v>222</v>
       </c>
       <c r="E23">
         <v>331.32</v>
@@ -2734,13 +2769,13 @@
         <v>44949</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="E24">
         <v>336.11</v>
@@ -2757,13 +2792,13 @@
         <v>44950</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>430</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>424</v>
+        <v>224</v>
       </c>
       <c r="E25">
         <v>255.75</v>
@@ -2780,13 +2815,13 @@
         <v>44951</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>431</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="E26">
         <v>424.78</v>
@@ -2803,13 +2838,13 @@
         <v>44952</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>432</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>426</v>
+        <v>226</v>
       </c>
       <c r="E27">
         <v>440.54</v>
@@ -2826,13 +2861,13 @@
         <v>44953</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>433</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>227</v>
       </c>
       <c r="E28">
         <v>148.03</v>
@@ -2849,13 +2884,13 @@
         <v>44954</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>434</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>228</v>
       </c>
       <c r="E29">
         <v>353.9</v>
@@ -2872,13 +2907,13 @@
         <v>44955</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>435</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>229</v>
       </c>
       <c r="E30">
         <v>122.69</v>
@@ -2895,13 +2930,13 @@
         <v>44956</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>436</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="E31">
         <v>134.68</v>
@@ -2918,13 +2953,13 @@
         <v>44957</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>437</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>431</v>
+        <v>231</v>
       </c>
       <c r="E32">
         <v>244.19</v>
@@ -2941,13 +2976,13 @@
         <v>44958</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>438</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>432</v>
+        <v>232</v>
       </c>
       <c r="E33">
         <v>329.1</v>
@@ -2964,13 +2999,13 @@
         <v>44959</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>439</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>233</v>
       </c>
       <c r="E34">
         <v>111.69</v>
@@ -2987,13 +3022,13 @@
         <v>44960</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>440</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>434</v>
+        <v>234</v>
       </c>
       <c r="E35">
         <v>287.23</v>
@@ -3010,13 +3045,13 @@
         <v>44961</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>441</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>435</v>
+        <v>235</v>
       </c>
       <c r="E36">
         <v>396.11</v>
@@ -3033,13 +3068,13 @@
         <v>44962</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>442</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>436</v>
+        <v>236</v>
       </c>
       <c r="E37">
         <v>294.66000000000003</v>
@@ -3056,13 +3091,13 @@
         <v>44963</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>443</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>437</v>
+        <v>237</v>
       </c>
       <c r="E38">
         <v>222.42</v>
@@ -3079,13 +3114,13 @@
         <v>44964</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>438</v>
+        <v>238</v>
       </c>
       <c r="E39">
         <v>457.09</v>
@@ -3102,13 +3137,13 @@
         <v>44965</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>439</v>
+        <v>239</v>
       </c>
       <c r="E40">
         <v>293.17</v>
@@ -3125,13 +3160,13 @@
         <v>44966</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="E41">
         <v>403.45</v>
@@ -3148,13 +3183,13 @@
         <v>44967</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>441</v>
+        <v>241</v>
       </c>
       <c r="E42">
         <v>285.72000000000003</v>
@@ -3171,13 +3206,13 @@
         <v>44968</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>442</v>
+        <v>242</v>
       </c>
       <c r="E43">
         <v>251.15</v>
@@ -3194,13 +3229,13 @@
         <v>44969</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>449</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>443</v>
+        <v>243</v>
       </c>
       <c r="E44">
         <v>362.25</v>
@@ -3217,13 +3252,13 @@
         <v>44970</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>450</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>444</v>
+        <v>244</v>
       </c>
       <c r="E45">
         <v>121.75</v>
@@ -3240,13 +3275,13 @@
         <v>44971</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>451</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>445</v>
+        <v>245</v>
       </c>
       <c r="E46">
         <v>367.84</v>
@@ -3263,13 +3298,13 @@
         <v>44972</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>452</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>446</v>
+        <v>246</v>
       </c>
       <c r="E47">
         <v>157.94</v>
@@ -3286,13 +3321,13 @@
         <v>44973</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>453</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="E48">
         <v>295.22000000000003</v>
@@ -3309,13 +3344,13 @@
         <v>44974</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>454</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="E49">
         <v>118.86</v>
@@ -3332,13 +3367,13 @@
         <v>44975</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>455</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>449</v>
+        <v>249</v>
       </c>
       <c r="E50">
         <v>447.61</v>
@@ -3355,13 +3390,13 @@
         <v>44976</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>456</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E51">
         <v>133.57</v>
@@ -3378,13 +3413,13 @@
         <v>44977</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>457</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="E52">
         <v>394.27</v>
@@ -3401,13 +3436,13 @@
         <v>44978</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>458</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>452</v>
+        <v>252</v>
       </c>
       <c r="E53">
         <v>299.39</v>
@@ -3424,13 +3459,13 @@
         <v>44979</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>459</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>453</v>
+        <v>253</v>
       </c>
       <c r="E54">
         <v>456.94</v>
@@ -3447,13 +3482,13 @@
         <v>44980</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>460</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>454</v>
+        <v>254</v>
       </c>
       <c r="E55">
         <v>271.02999999999997</v>
@@ -3470,13 +3505,13 @@
         <v>44981</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>461</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>455</v>
+        <v>255</v>
       </c>
       <c r="E56">
         <v>436.86</v>
@@ -3493,13 +3528,13 @@
         <v>44982</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>462</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>456</v>
+        <v>256</v>
       </c>
       <c r="E57">
         <v>247.1</v>
@@ -3516,13 +3551,13 @@
         <v>44983</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>463</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>457</v>
+        <v>257</v>
       </c>
       <c r="E58">
         <v>341.25</v>
@@ -3539,13 +3574,13 @@
         <v>44984</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>464</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>458</v>
+        <v>258</v>
       </c>
       <c r="E59">
         <v>183.73</v>
@@ -3562,13 +3597,13 @@
         <v>44985</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>465</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>459</v>
+        <v>259</v>
       </c>
       <c r="E60">
         <v>361.46</v>
@@ -3585,13 +3620,13 @@
         <v>44986</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>466</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="E61">
         <v>334.37</v>
@@ -3608,13 +3643,13 @@
         <v>44987</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>467</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>461</v>
+        <v>261</v>
       </c>
       <c r="E62">
         <v>221.26</v>
@@ -3631,13 +3666,13 @@
         <v>44988</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>468</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>462</v>
+        <v>262</v>
       </c>
       <c r="E63">
         <v>224.99</v>
@@ -3654,13 +3689,13 @@
         <v>44989</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>469</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>463</v>
+        <v>263</v>
       </c>
       <c r="E64">
         <v>430.76</v>
@@ -3677,13 +3712,13 @@
         <v>44990</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>470</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>464</v>
+        <v>264</v>
       </c>
       <c r="E65">
         <v>189.27</v>
@@ -3700,13 +3735,13 @@
         <v>44991</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>471</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>465</v>
+        <v>265</v>
       </c>
       <c r="E66">
         <v>462.38</v>
@@ -3723,13 +3758,13 @@
         <v>44992</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>466</v>
+        <v>266</v>
       </c>
       <c r="E67">
         <v>105.12</v>
@@ -3746,13 +3781,13 @@
         <v>44993</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>473</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>467</v>
+        <v>267</v>
       </c>
       <c r="E68">
         <v>125.01</v>
@@ -3769,13 +3804,13 @@
         <v>44994</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>474</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>468</v>
+        <v>268</v>
       </c>
       <c r="E69">
         <v>219.03</v>
@@ -3792,13 +3827,13 @@
         <v>44995</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>469</v>
+        <v>269</v>
       </c>
       <c r="E70">
         <v>413.41</v>
@@ -3815,13 +3850,13 @@
         <v>44996</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>476</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>470</v>
+        <v>270</v>
       </c>
       <c r="E71">
         <v>188.19</v>
@@ -3838,13 +3873,13 @@
         <v>44997</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>477</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>471</v>
+        <v>271</v>
       </c>
       <c r="E72">
         <v>476.96</v>
@@ -3861,13 +3896,13 @@
         <v>44998</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>478</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="E73">
         <v>107.64</v>
@@ -3884,13 +3919,13 @@
         <v>44999</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>479</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>473</v>
+        <v>273</v>
       </c>
       <c r="E74">
         <v>311.86</v>
@@ -3907,13 +3942,13 @@
         <v>45000</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>480</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>474</v>
+        <v>274</v>
       </c>
       <c r="E75">
         <v>173.88</v>
@@ -3930,13 +3965,13 @@
         <v>45001</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>481</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>475</v>
+        <v>275</v>
       </c>
       <c r="E76">
         <v>282.58999999999997</v>
@@ -3953,13 +3988,13 @@
         <v>45002</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>482</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>476</v>
+        <v>276</v>
       </c>
       <c r="E77">
         <v>191.54</v>
@@ -3976,13 +4011,13 @@
         <v>45003</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>483</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>477</v>
+        <v>277</v>
       </c>
       <c r="E78">
         <v>410.99</v>
@@ -3999,13 +4034,13 @@
         <v>45004</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>484</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>478</v>
+        <v>278</v>
       </c>
       <c r="E79">
         <v>288.35000000000002</v>
@@ -4022,13 +4057,13 @@
         <v>45005</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>485</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>479</v>
+        <v>279</v>
       </c>
       <c r="E80">
         <v>485.37</v>
@@ -4045,13 +4080,13 @@
         <v>45006</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>486</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="E81">
         <v>441.1</v>
@@ -4068,13 +4103,13 @@
         <v>45007</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>487</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>481</v>
+        <v>281</v>
       </c>
       <c r="E82">
         <v>220.73</v>
@@ -4091,13 +4126,13 @@
         <v>45008</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>482</v>
+        <v>282</v>
       </c>
       <c r="E83">
         <v>278.63</v>
@@ -4114,13 +4149,13 @@
         <v>45009</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>489</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="E84">
         <v>391.07</v>
@@ -4137,13 +4172,13 @@
         <v>45010</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>490</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>484</v>
+        <v>284</v>
       </c>
       <c r="E85">
         <v>100.09</v>
@@ -4160,13 +4195,13 @@
         <v>45011</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>491</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>485</v>
+        <v>285</v>
       </c>
       <c r="E86">
         <v>283.98</v>
@@ -4183,13 +4218,13 @@
         <v>45012</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>492</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>486</v>
+        <v>286</v>
       </c>
       <c r="E87">
         <v>190.46</v>
@@ -4206,13 +4241,13 @@
         <v>45013</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>493</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>487</v>
+        <v>287</v>
       </c>
       <c r="E88">
         <v>430.14</v>
@@ -4229,13 +4264,13 @@
         <v>45014</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>494</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>488</v>
+        <v>288</v>
       </c>
       <c r="E89">
         <v>230.85</v>
@@ -4252,13 +4287,13 @@
         <v>45015</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>495</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="E90">
         <v>458.6</v>
@@ -4275,13 +4310,13 @@
         <v>45016</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>496</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="E91">
         <v>317.64</v>
@@ -4298,13 +4333,13 @@
         <v>45017</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>497</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>491</v>
+        <v>291</v>
       </c>
       <c r="E92">
         <v>477.42</v>
@@ -4321,13 +4356,13 @@
         <v>45018</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>498</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>492</v>
+        <v>292</v>
       </c>
       <c r="E93">
         <v>429.08</v>
@@ -4344,13 +4379,13 @@
         <v>45019</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>499</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>493</v>
+        <v>293</v>
       </c>
       <c r="E94">
         <v>231.7</v>
@@ -4367,13 +4402,13 @@
         <v>45020</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>500</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>494</v>
+        <v>294</v>
       </c>
       <c r="E95">
         <v>151.77000000000001</v>
@@ -4390,13 +4425,13 @@
         <v>45021</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>501</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>495</v>
+        <v>295</v>
       </c>
       <c r="E96">
         <v>327.12</v>
@@ -4413,13 +4448,13 @@
         <v>45022</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>502</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>496</v>
+        <v>296</v>
       </c>
       <c r="E97">
         <v>114.8</v>
@@ -4436,13 +4471,13 @@
         <v>45023</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>503</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>497</v>
+        <v>297</v>
       </c>
       <c r="E98">
         <v>237.37</v>
@@ -4459,13 +4494,13 @@
         <v>45024</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>504</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="E99">
         <v>444.36</v>
@@ -4482,13 +4517,13 @@
         <v>45025</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>505</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="E100">
         <v>396.53</v>
@@ -4505,13 +4540,13 @@
         <v>45026</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>506</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E101">
         <v>185.34</v>
@@ -4528,13 +4563,13 @@
         <v>45027</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="E102">
         <v>146.1</v>
@@ -4551,13 +4586,13 @@
         <v>45028</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>508</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>502</v>
+        <v>302</v>
       </c>
       <c r="E103">
         <v>278.38</v>
@@ -4574,13 +4609,13 @@
         <v>45029</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>509</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>503</v>
+        <v>303</v>
       </c>
       <c r="E104">
         <v>311.52999999999997</v>
@@ -4597,13 +4632,13 @@
         <v>45030</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>504</v>
+        <v>304</v>
       </c>
       <c r="E105">
         <v>210.09</v>
@@ -4620,13 +4655,13 @@
         <v>45031</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>511</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="E106">
         <v>454.52</v>
@@ -4643,13 +4678,13 @@
         <v>45032</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>512</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>506</v>
+        <v>306</v>
       </c>
       <c r="E107">
         <v>356.38</v>
@@ -4666,13 +4701,13 @@
         <v>45033</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>513</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="E108">
         <v>191.07</v>
@@ -4689,13 +4724,13 @@
         <v>45034</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>514</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>508</v>
+        <v>308</v>
       </c>
       <c r="E109">
         <v>116.4</v>
@@ -4712,13 +4747,13 @@
         <v>45035</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>515</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>509</v>
+        <v>309</v>
       </c>
       <c r="E110">
         <v>398.75</v>
@@ -4735,13 +4770,13 @@
         <v>45036</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>516</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>510</v>
+        <v>310</v>
       </c>
       <c r="E111">
         <v>171.78</v>
@@ -4758,13 +4793,13 @@
         <v>45037</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>517</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>511</v>
+        <v>311</v>
       </c>
       <c r="E112">
         <v>146.83000000000001</v>
@@ -4781,13 +4816,13 @@
         <v>45038</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>518</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>512</v>
+        <v>312</v>
       </c>
       <c r="E113">
         <v>408.64</v>
@@ -4804,13 +4839,13 @@
         <v>45039</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>519</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>513</v>
+        <v>313</v>
       </c>
       <c r="E114">
         <v>120.78</v>
@@ -4827,13 +4862,13 @@
         <v>45040</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>520</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="D115" t="s">
-        <v>514</v>
+        <v>314</v>
       </c>
       <c r="E115">
         <v>394.63</v>
@@ -4850,13 +4885,13 @@
         <v>45041</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>521</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>515</v>
+        <v>315</v>
       </c>
       <c r="E116">
         <v>165.41</v>
@@ -4873,13 +4908,13 @@
         <v>45042</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>522</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>516</v>
+        <v>316</v>
       </c>
       <c r="E117">
         <v>249.26</v>
@@ -4896,13 +4931,13 @@
         <v>45043</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>523</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>517</v>
+        <v>317</v>
       </c>
       <c r="E118">
         <v>104.18</v>
@@ -4919,13 +4954,13 @@
         <v>45044</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>524</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>518</v>
+        <v>318</v>
       </c>
       <c r="E119">
         <v>347.43</v>
@@ -4942,13 +4977,13 @@
         <v>45045</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>525</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>519</v>
+        <v>319</v>
       </c>
       <c r="E120">
         <v>207.59</v>
@@ -4965,13 +5000,13 @@
         <v>45046</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>526</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="E121">
         <v>347.47</v>
@@ -4988,13 +5023,13 @@
         <v>45047</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>527</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>521</v>
+        <v>321</v>
       </c>
       <c r="E122">
         <v>294.69</v>
@@ -5011,13 +5046,13 @@
         <v>45048</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>528</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>522</v>
+        <v>322</v>
       </c>
       <c r="E123">
         <v>100.32</v>
@@ -5034,13 +5069,13 @@
         <v>45049</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>529</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="D124" t="s">
-        <v>523</v>
+        <v>323</v>
       </c>
       <c r="E124">
         <v>181.96</v>
@@ -5057,13 +5092,13 @@
         <v>45050</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>530</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>524</v>
+        <v>324</v>
       </c>
       <c r="E125">
         <v>369.34</v>
@@ -5080,13 +5115,13 @@
         <v>45051</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>531</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="D126" t="s">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="E126">
         <v>463.92</v>
@@ -5103,13 +5138,13 @@
         <v>45052</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>532</v>
       </c>
       <c r="C127" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>526</v>
+        <v>326</v>
       </c>
       <c r="E127">
         <v>468.09</v>
@@ -5126,13 +5161,13 @@
         <v>45053</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>533</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="D128" t="s">
-        <v>527</v>
+        <v>327</v>
       </c>
       <c r="E128">
         <v>271.10000000000002</v>
@@ -5149,13 +5184,13 @@
         <v>45054</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>534</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="D129" t="s">
-        <v>528</v>
+        <v>328</v>
       </c>
       <c r="E129">
         <v>445.36</v>
@@ -5172,13 +5207,13 @@
         <v>45055</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>535</v>
       </c>
       <c r="C130" t="s">
-        <v>257</v>
+        <v>128</v>
       </c>
       <c r="D130" t="s">
-        <v>529</v>
+        <v>329</v>
       </c>
       <c r="E130">
         <v>362.6</v>
@@ -5195,13 +5230,13 @@
         <v>45056</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>536</v>
       </c>
       <c r="C131" t="s">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="D131" t="s">
-        <v>530</v>
+        <v>330</v>
       </c>
       <c r="E131">
         <v>180.9</v>
@@ -5218,13 +5253,13 @@
         <v>45057</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>537</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>531</v>
+        <v>331</v>
       </c>
       <c r="E132">
         <v>253.76</v>
@@ -5241,13 +5276,13 @@
         <v>45058</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>538</v>
       </c>
       <c r="C133" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>532</v>
+        <v>332</v>
       </c>
       <c r="E133">
         <v>286.81</v>
@@ -5264,13 +5299,13 @@
         <v>45059</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>539</v>
       </c>
       <c r="C134" t="s">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="D134" t="s">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="E134">
         <v>293.47000000000003</v>
@@ -5287,13 +5322,13 @@
         <v>45060</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>540</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="D135" t="s">
-        <v>534</v>
+        <v>334</v>
       </c>
       <c r="E135">
         <v>127.35</v>
@@ -5310,13 +5345,13 @@
         <v>45061</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>541</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>134</v>
       </c>
       <c r="D136" t="s">
-        <v>535</v>
+        <v>335</v>
       </c>
       <c r="E136">
         <v>352.31</v>
@@ -5333,13 +5368,13 @@
         <v>45062</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>542</v>
       </c>
       <c r="C137" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="D137" t="s">
-        <v>536</v>
+        <v>336</v>
       </c>
       <c r="E137">
         <v>115.27</v>
@@ -5356,13 +5391,13 @@
         <v>45063</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>543</v>
       </c>
       <c r="C138" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="D138" t="s">
-        <v>537</v>
+        <v>337</v>
       </c>
       <c r="E138">
         <v>454.19</v>
@@ -5379,13 +5414,13 @@
         <v>45064</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>544</v>
       </c>
       <c r="C139" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="D139" t="s">
-        <v>538</v>
+        <v>338</v>
       </c>
       <c r="E139">
         <v>461.52</v>
@@ -5402,13 +5437,13 @@
         <v>45065</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>545</v>
       </c>
       <c r="C140" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="D140" t="s">
-        <v>539</v>
+        <v>339</v>
       </c>
       <c r="E140">
         <v>421.34</v>
@@ -5425,13 +5460,13 @@
         <v>45066</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>546</v>
       </c>
       <c r="C141" t="s">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="D141" t="s">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="E141">
         <v>109.65</v>
@@ -5448,13 +5483,13 @@
         <v>45067</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>547</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="D142" t="s">
-        <v>541</v>
+        <v>341</v>
       </c>
       <c r="E142">
         <v>153.59</v>
@@ -5471,13 +5506,13 @@
         <v>45068</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>548</v>
       </c>
       <c r="C143" t="s">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="D143" t="s">
-        <v>542</v>
+        <v>342</v>
       </c>
       <c r="E143">
         <v>150.53</v>
@@ -5494,13 +5529,13 @@
         <v>45069</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>549</v>
       </c>
       <c r="C144" t="s">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="D144" t="s">
-        <v>543</v>
+        <v>343</v>
       </c>
       <c r="E144">
         <v>490.09</v>
@@ -5517,13 +5552,13 @@
         <v>45070</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>550</v>
       </c>
       <c r="C145" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="D145" t="s">
-        <v>544</v>
+        <v>344</v>
       </c>
       <c r="E145">
         <v>263.94</v>
@@ -5540,13 +5575,13 @@
         <v>45071</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>551</v>
       </c>
       <c r="C146" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="D146" t="s">
-        <v>545</v>
+        <v>345</v>
       </c>
       <c r="E146">
         <v>290.52999999999997</v>
@@ -5563,13 +5598,13 @@
         <v>45072</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>552</v>
       </c>
       <c r="C147" t="s">
-        <v>291</v>
+        <v>145</v>
       </c>
       <c r="D147" t="s">
-        <v>546</v>
+        <v>346</v>
       </c>
       <c r="E147">
         <v>133.38999999999999</v>
@@ -5586,13 +5621,13 @@
         <v>45073</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>553</v>
       </c>
       <c r="C148" t="s">
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="D148" t="s">
-        <v>547</v>
+        <v>347</v>
       </c>
       <c r="E148">
         <v>456.49</v>
@@ -5609,13 +5644,13 @@
         <v>45074</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>554</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="D149" t="s">
-        <v>548</v>
+        <v>348</v>
       </c>
       <c r="E149">
         <v>281.79000000000002</v>
@@ -5632,13 +5667,13 @@
         <v>45075</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>555</v>
       </c>
       <c r="C150" t="s">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="D150" t="s">
-        <v>549</v>
+        <v>349</v>
       </c>
       <c r="E150">
         <v>442.77</v>
@@ -5655,13 +5690,13 @@
         <v>45076</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>556</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="D151" t="s">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="E151">
         <v>270.39999999999998</v>
@@ -5678,13 +5713,13 @@
         <v>45077</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>557</v>
       </c>
       <c r="C152" t="s">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="D152" t="s">
-        <v>551</v>
+        <v>351</v>
       </c>
       <c r="E152">
         <v>344.84</v>
@@ -5701,13 +5736,13 @@
         <v>45078</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>558</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
+        <v>151</v>
       </c>
       <c r="D153" t="s">
-        <v>552</v>
+        <v>352</v>
       </c>
       <c r="E153">
         <v>317.69</v>
@@ -5724,13 +5759,13 @@
         <v>45079</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>559</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>152</v>
       </c>
       <c r="D154" t="s">
-        <v>553</v>
+        <v>353</v>
       </c>
       <c r="E154">
         <v>415.93</v>
@@ -5747,13 +5782,13 @@
         <v>45080</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>560</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>153</v>
       </c>
       <c r="D155" t="s">
-        <v>554</v>
+        <v>354</v>
       </c>
       <c r="E155">
         <v>103.72</v>
@@ -5770,13 +5805,13 @@
         <v>45081</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>561</v>
       </c>
       <c r="C156" t="s">
-        <v>309</v>
+        <v>154</v>
       </c>
       <c r="D156" t="s">
-        <v>555</v>
+        <v>355</v>
       </c>
       <c r="E156">
         <v>208</v>
@@ -5793,13 +5828,13 @@
         <v>45082</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>562</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>155</v>
       </c>
       <c r="D157" t="s">
-        <v>556</v>
+        <v>356</v>
       </c>
       <c r="E157">
         <v>318.95</v>
@@ -5816,13 +5851,13 @@
         <v>45083</v>
       </c>
       <c r="B158" t="s">
-        <v>312</v>
+        <v>563</v>
       </c>
       <c r="C158" t="s">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="D158" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="E158">
         <v>480.66</v>
@@ -5839,13 +5874,13 @@
         <v>45084</v>
       </c>
       <c r="B159" t="s">
-        <v>314</v>
+        <v>564</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="D159" t="s">
-        <v>558</v>
+        <v>358</v>
       </c>
       <c r="E159">
         <v>333.01</v>
@@ -5862,13 +5897,13 @@
         <v>45085</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>565</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="D160" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="E160">
         <v>208.72</v>
@@ -5885,13 +5920,13 @@
         <v>45086</v>
       </c>
       <c r="B161" t="s">
-        <v>318</v>
+        <v>566</v>
       </c>
       <c r="C161" t="s">
-        <v>319</v>
+        <v>159</v>
       </c>
       <c r="D161" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="E161">
         <v>479.51</v>
@@ -5908,13 +5943,13 @@
         <v>45087</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>567</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>160</v>
       </c>
       <c r="D162" t="s">
-        <v>561</v>
+        <v>361</v>
       </c>
       <c r="E162">
         <v>164.82</v>
@@ -5931,13 +5966,13 @@
         <v>45088</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>568</v>
       </c>
       <c r="C163" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="D163" t="s">
-        <v>562</v>
+        <v>362</v>
       </c>
       <c r="E163">
         <v>384.18</v>
@@ -5954,13 +5989,13 @@
         <v>45089</v>
       </c>
       <c r="B164" t="s">
-        <v>324</v>
+        <v>569</v>
       </c>
       <c r="C164" t="s">
-        <v>325</v>
+        <v>162</v>
       </c>
       <c r="D164" t="s">
-        <v>563</v>
+        <v>363</v>
       </c>
       <c r="E164">
         <v>252.37</v>
@@ -5977,13 +6012,13 @@
         <v>45090</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>570</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="D165" t="s">
-        <v>564</v>
+        <v>364</v>
       </c>
       <c r="E165">
         <v>312.88</v>
@@ -6000,13 +6035,13 @@
         <v>45091</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>571</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="D166" t="s">
-        <v>565</v>
+        <v>365</v>
       </c>
       <c r="E166">
         <v>287.05</v>
@@ -6023,13 +6058,13 @@
         <v>45092</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>572</v>
       </c>
       <c r="C167" t="s">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="D167" t="s">
-        <v>566</v>
+        <v>366</v>
       </c>
       <c r="E167">
         <v>457.81</v>
@@ -6046,13 +6081,13 @@
         <v>45093</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>573</v>
       </c>
       <c r="C168" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="D168" t="s">
-        <v>567</v>
+        <v>367</v>
       </c>
       <c r="E168">
         <v>474.62</v>
@@ -6069,13 +6104,13 @@
         <v>45094</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>574</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="D169" t="s">
-        <v>568</v>
+        <v>368</v>
       </c>
       <c r="E169">
         <v>126.06</v>
@@ -6092,13 +6127,13 @@
         <v>45095</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>575</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="D170" t="s">
-        <v>569</v>
+        <v>369</v>
       </c>
       <c r="E170">
         <v>408.24</v>
@@ -6115,13 +6150,13 @@
         <v>45096</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>576</v>
       </c>
       <c r="C171" t="s">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="D171" t="s">
-        <v>570</v>
+        <v>370</v>
       </c>
       <c r="E171">
         <v>263.52999999999997</v>
@@ -6138,13 +6173,13 @@
         <v>45097</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>577</v>
       </c>
       <c r="C172" t="s">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="D172" t="s">
-        <v>571</v>
+        <v>371</v>
       </c>
       <c r="E172">
         <v>340.2</v>
@@ -6161,13 +6196,13 @@
         <v>45098</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
+        <v>578</v>
       </c>
       <c r="C173" t="s">
-        <v>343</v>
+        <v>171</v>
       </c>
       <c r="D173" t="s">
-        <v>572</v>
+        <v>372</v>
       </c>
       <c r="E173">
         <v>206.13</v>
@@ -6184,13 +6219,13 @@
         <v>45099</v>
       </c>
       <c r="B174" t="s">
-        <v>344</v>
+        <v>579</v>
       </c>
       <c r="C174" t="s">
-        <v>345</v>
+        <v>172</v>
       </c>
       <c r="D174" t="s">
-        <v>573</v>
+        <v>373</v>
       </c>
       <c r="E174">
         <v>139.36000000000001</v>
@@ -6207,13 +6242,13 @@
         <v>45100</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>580</v>
       </c>
       <c r="C175" t="s">
-        <v>347</v>
+        <v>173</v>
       </c>
       <c r="D175" t="s">
-        <v>574</v>
+        <v>374</v>
       </c>
       <c r="E175">
         <v>464.47</v>
@@ -6230,13 +6265,13 @@
         <v>45101</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>581</v>
       </c>
       <c r="C176" t="s">
-        <v>349</v>
+        <v>174</v>
       </c>
       <c r="D176" t="s">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="E176">
         <v>478.35</v>
@@ -6253,13 +6288,13 @@
         <v>45102</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>582</v>
       </c>
       <c r="C177" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="D177" t="s">
-        <v>576</v>
+        <v>376</v>
       </c>
       <c r="E177">
         <v>339.73</v>
@@ -6276,13 +6311,13 @@
         <v>45103</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>583</v>
       </c>
       <c r="C178" t="s">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="D178" t="s">
-        <v>577</v>
+        <v>377</v>
       </c>
       <c r="E178">
         <v>217.13</v>
@@ -6299,13 +6334,13 @@
         <v>45104</v>
       </c>
       <c r="B179" t="s">
-        <v>354</v>
+        <v>584</v>
       </c>
       <c r="C179" t="s">
-        <v>355</v>
+        <v>177</v>
       </c>
       <c r="D179" t="s">
-        <v>578</v>
+        <v>378</v>
       </c>
       <c r="E179">
         <v>363.6</v>
@@ -6322,13 +6357,13 @@
         <v>45105</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="C180" t="s">
-        <v>357</v>
+        <v>178</v>
       </c>
       <c r="D180" t="s">
-        <v>579</v>
+        <v>379</v>
       </c>
       <c r="E180">
         <v>444.72</v>
@@ -6345,13 +6380,13 @@
         <v>45106</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>586</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>179</v>
       </c>
       <c r="D181" t="s">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="E181">
         <v>148.5</v>
@@ -6368,13 +6403,13 @@
         <v>45107</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>587</v>
       </c>
       <c r="C182" t="s">
-        <v>361</v>
+        <v>180</v>
       </c>
       <c r="D182" t="s">
-        <v>581</v>
+        <v>381</v>
       </c>
       <c r="E182">
         <v>189.04</v>
@@ -6391,13 +6426,13 @@
         <v>45108</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>588</v>
       </c>
       <c r="C183" t="s">
-        <v>363</v>
+        <v>181</v>
       </c>
       <c r="D183" t="s">
-        <v>582</v>
+        <v>382</v>
       </c>
       <c r="E183">
         <v>222.74</v>
@@ -6414,13 +6449,13 @@
         <v>45109</v>
       </c>
       <c r="B184" t="s">
-        <v>364</v>
+        <v>589</v>
       </c>
       <c r="C184" t="s">
-        <v>365</v>
+        <v>182</v>
       </c>
       <c r="D184" t="s">
-        <v>583</v>
+        <v>383</v>
       </c>
       <c r="E184">
         <v>371.93</v>
@@ -6437,13 +6472,13 @@
         <v>45110</v>
       </c>
       <c r="B185" t="s">
-        <v>366</v>
+        <v>590</v>
       </c>
       <c r="C185" t="s">
-        <v>367</v>
+        <v>183</v>
       </c>
       <c r="D185" t="s">
-        <v>584</v>
+        <v>384</v>
       </c>
       <c r="E185">
         <v>265.44</v>
@@ -6460,13 +6495,13 @@
         <v>45111</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>591</v>
       </c>
       <c r="C186" t="s">
-        <v>369</v>
+        <v>184</v>
       </c>
       <c r="D186" t="s">
-        <v>585</v>
+        <v>385</v>
       </c>
       <c r="E186">
         <v>367.67</v>
@@ -6483,13 +6518,13 @@
         <v>45112</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>592</v>
       </c>
       <c r="C187" t="s">
-        <v>371</v>
+        <v>185</v>
       </c>
       <c r="D187" t="s">
-        <v>586</v>
+        <v>386</v>
       </c>
       <c r="E187">
         <v>226.31</v>
@@ -6506,13 +6541,13 @@
         <v>45113</v>
       </c>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>593</v>
       </c>
       <c r="C188" t="s">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="D188" t="s">
-        <v>587</v>
+        <v>387</v>
       </c>
       <c r="E188">
         <v>482.82</v>
@@ -6529,13 +6564,13 @@
         <v>45114</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>594</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>187</v>
       </c>
       <c r="D189" t="s">
-        <v>588</v>
+        <v>388</v>
       </c>
       <c r="E189">
         <v>200.81</v>
@@ -6552,13 +6587,13 @@
         <v>45115</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>595</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>188</v>
       </c>
       <c r="D190" t="s">
-        <v>589</v>
+        <v>389</v>
       </c>
       <c r="E190">
         <v>140.43</v>
@@ -6575,13 +6610,13 @@
         <v>45116</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>596</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>189</v>
       </c>
       <c r="D191" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="E191">
         <v>128.62</v>
@@ -6598,13 +6633,13 @@
         <v>45117</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>597</v>
       </c>
       <c r="C192" t="s">
-        <v>381</v>
+        <v>190</v>
       </c>
       <c r="D192" t="s">
-        <v>591</v>
+        <v>391</v>
       </c>
       <c r="E192">
         <v>434.14</v>
@@ -6621,13 +6656,13 @@
         <v>45118</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>598</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>191</v>
       </c>
       <c r="D193" t="s">
-        <v>592</v>
+        <v>392</v>
       </c>
       <c r="E193">
         <v>223.49</v>
@@ -6644,13 +6679,13 @@
         <v>45119</v>
       </c>
       <c r="B194" t="s">
-        <v>384</v>
+        <v>599</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>192</v>
       </c>
       <c r="D194" t="s">
-        <v>593</v>
+        <v>393</v>
       </c>
       <c r="E194">
         <v>312.14999999999998</v>
@@ -6667,13 +6702,13 @@
         <v>45120</v>
       </c>
       <c r="B195" t="s">
-        <v>386</v>
+        <v>600</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>193</v>
       </c>
       <c r="D195" t="s">
-        <v>594</v>
+        <v>394</v>
       </c>
       <c r="E195">
         <v>380.98</v>
@@ -6690,13 +6725,13 @@
         <v>45121</v>
       </c>
       <c r="B196" t="s">
-        <v>388</v>
+        <v>601</v>
       </c>
       <c r="C196" t="s">
-        <v>389</v>
+        <v>194</v>
       </c>
       <c r="D196" t="s">
-        <v>595</v>
+        <v>395</v>
       </c>
       <c r="E196">
         <v>149.58000000000001</v>
@@ -6713,13 +6748,13 @@
         <v>45122</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>602</v>
       </c>
       <c r="C197" t="s">
-        <v>391</v>
+        <v>195</v>
       </c>
       <c r="D197" t="s">
-        <v>596</v>
+        <v>396</v>
       </c>
       <c r="E197">
         <v>372.05</v>
@@ -6736,13 +6771,13 @@
         <v>45123</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>603</v>
       </c>
       <c r="C198" t="s">
-        <v>393</v>
+        <v>196</v>
       </c>
       <c r="D198" t="s">
-        <v>597</v>
+        <v>397</v>
       </c>
       <c r="E198">
         <v>109.91</v>
@@ -6759,13 +6794,13 @@
         <v>45124</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>604</v>
       </c>
       <c r="C199" t="s">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="D199" t="s">
-        <v>598</v>
+        <v>398</v>
       </c>
       <c r="E199">
         <v>234.66</v>
@@ -6782,13 +6817,13 @@
         <v>45125</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>605</v>
       </c>
       <c r="C200" t="s">
-        <v>397</v>
+        <v>198</v>
       </c>
       <c r="D200" t="s">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="E200">
         <v>345.9</v>
@@ -6805,13 +6840,13 @@
         <v>45126</v>
       </c>
       <c r="B201" t="s">
-        <v>398</v>
+        <v>606</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="D201" t="s">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E201">
         <v>343.46</v>
@@ -6825,5 +6860,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>